--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,211 +55,145 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>ironically</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>confusing</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>badly</t>
+    <t>social</t>
   </si>
   <si>
     <t>great</t>
@@ -271,9 +205,6 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -295,232 +226,193 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>ways</t>
+  </si>
+  <si>
+    <t>faster</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>engineers</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>necessary</t>
+    <t>smart</t>
   </si>
   <si>
     <t>positive</t>
@@ -881,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -950,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1736930860033727</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -968,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.09677419354838709</v>
+        <v>0.1160493827160494</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -992,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1000,13 +892,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1079258010118044</v>
+        <v>0.1175373134328358</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1018,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.0944700460829493</v>
+        <v>0.1012345679012346</v>
       </c>
       <c r="L4">
         <v>41</v>
@@ -1042,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1050,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1028667790893761</v>
+        <v>0.1138059701492537</v>
       </c>
       <c r="C5">
         <v>61</v>
@@ -1071,16 +963,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.08755760368663594</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1092,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1100,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04721753794266442</v>
+        <v>0.0541044776119403</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1118,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.08064516129032258</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L6">
         <v>35</v>
@@ -1142,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1063</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1150,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04384485666104553</v>
+        <v>0.04664179104477612</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1168,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.06682027649769585</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1192,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1200,13 +1092,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02529510961214165</v>
+        <v>0.03917910447761194</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1218,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.0576036866359447</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1242,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1250,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02360876897133221</v>
+        <v>0.02611940298507463</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1271,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.04147465437788019</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L9">
         <v>18</v>
@@ -1300,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02192242833052277</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1321,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.03686635944700461</v>
+        <v>0.0345679012345679</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1342,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1350,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02192242833052277</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1368,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.02304147465437788</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1400,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01854974704890388</v>
+        <v>0.02052238805970149</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1418,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.0184331797235023</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1442,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1450,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01854974704890388</v>
+        <v>0.02052238805970149</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1471,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.0184331797235023</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1500,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01686340640809443</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1518,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.01612903225806452</v>
+        <v>0.01728395061728395</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1542,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1550,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01686340640809443</v>
+        <v>0.0167910447761194</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1568,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.01382488479262673</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1592,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1600,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01517706576728499</v>
+        <v>0.0167910447761194</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1618,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.01382488479262673</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1642,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1650,7 +1542,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01517706576728499</v>
+        <v>0.0167910447761194</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1668,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.01152073732718894</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1692,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>54</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1700,13 +1592,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01517706576728499</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1718,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.01152073732718894</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1742,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1750,13 +1642,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01517706576728499</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1768,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.01152073732718894</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1792,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1800,49 +1692,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01517706576728499</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20">
+        <v>0.009876543209876543</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20">
-        <v>0.01152073732718894</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1850,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01349072512647555</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1871,16 +1763,16 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.01152073732718894</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1892,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1900,13 +1792,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01349072512647555</v>
+        <v>0.01305970149253731</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1918,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.009216589861751152</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -1942,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1950,13 +1842,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01011804384485666</v>
+        <v>0.01305970149253731</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1968,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.009216589861751152</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1992,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2000,13 +1892,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01011804384485666</v>
+        <v>0.01305970149253731</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2018,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.009216589861751152</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2042,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2050,7 +1942,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -2071,16 +1963,16 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.009216589861751152</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2092,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>536</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2100,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2118,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.006912442396313364</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2142,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2150,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2168,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.006912442396313364</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2192,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2200,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2218,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.006912442396313364</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2242,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2250,7 +2142,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2268,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.006912442396313364</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2292,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2300,7 +2192,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01011804384485666</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2318,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2342,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2350,13 +2242,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01011804384485666</v>
+        <v>0.009328358208955223</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2368,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2392,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2400,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008431703204047217</v>
+        <v>0.009328358208955223</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2418,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2442,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2450,7 +2342,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008431703204047217</v>
+        <v>0.009328358208955223</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2468,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2492,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2500,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006745362563237774</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2518,19 +2410,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2542,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2550,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006745362563237774</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2568,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2592,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2600,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006745362563237774</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2618,31 +2510,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2650,7 +2542,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006745362563237774</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2668,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="K37">
-        <v>0.006912442396313364</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2692,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1733</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2700,13 +2592,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006745362563237774</v>
+        <v>0.005597014925373134</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2718,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K38">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2742,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2750,13 +2642,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00505902192242833</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2768,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K39">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2792,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2800,13 +2692,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00505902192242833</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2818,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="K40">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2842,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2850,13 +2742,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00505902192242833</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2868,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="K41">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2892,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2900,13 +2792,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00505902192242833</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2918,19 +2810,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K42">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2942,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2950,13 +2842,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2968,19 +2860,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="K43">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2992,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3000,37 +2892,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>778</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K44">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3042,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3050,13 +2942,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3068,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3092,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>281</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3100,13 +2992,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3118,19 +3010,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="K46">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3142,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3150,13 +3042,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3168,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K47">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3192,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3200,13 +3092,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3218,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K48">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3242,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>662</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3250,13 +3142,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3268,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K49">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3292,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3300,13 +3192,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00505902192242833</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3318,19 +3210,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="K50">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3342,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3350,13 +3242,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003372681281618887</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3368,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K51">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3392,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3400,13 +3292,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003372681281618887</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3418,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="K52">
-        <v>0.004608294930875576</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3442,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3450,13 +3342,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003372681281618887</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3468,1519 +3360,655 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K57">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K64">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K65">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K70">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K71">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K72">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K75">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K76">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K53">
-        <v>0.004608294930875576</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.003372681281618887</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.003372681281618887</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K55">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.003372681281618887</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K56">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.003372681281618887</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K58">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K60">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>21</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K61">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K62">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>18</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K64">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K65">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K66">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K67">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K68">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K69">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K71">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>8</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K72">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K73">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K74">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
+      <c r="K77">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
         <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001686340640809443</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K76">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="J78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K78">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="J79" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K79">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="J80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K80">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K81">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K82">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K83">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K84">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K85">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K86">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K87">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K88">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K89">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
